--- a/BackEnd/Dictionnaire SDBM/DictionnaireSDBM.xlsx
+++ b/BackEnd/Dictionnaire SDBM/DictionnaireSDBM.xlsx
@@ -119,9 +119,6 @@
     <t>datesticket</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>lignevente</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>prixPayer</t>
+  </si>
+  <si>
+    <t>dateTime</t>
   </si>
 </sst>
 </file>
@@ -581,7 +581,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +773,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -781,10 +781,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>7</v>
@@ -795,10 +795,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>10</v>
@@ -809,10 +809,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>7</v>
@@ -823,10 +823,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
         <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>10</v>
@@ -837,10 +837,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
         <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>10</v>
@@ -851,13 +851,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
         <v>40</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -865,10 +865,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
         <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>10</v>
@@ -879,13 +879,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -893,10 +893,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>10</v>
@@ -907,13 +907,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -921,13 +921,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
         <v>48</v>
       </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
       <c r="D24" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
